--- a/resources/wheels/175 - Лойко.xlsx
+++ b/resources/wheels/175 - Лойко.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -715,16 +715,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -941,9 +941,9 @@
       <c r="F16" s="26">
         <v>14.6</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="26" t="n">
         <f>SUM(F16:F100)</f>
-        <v>31.099999999999998</v>
+        <v>37.658</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1053,7 +1053,9 @@
       <c r="E24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="26"/>
+      <c r="F24" s="26" t="n">
+        <v>2.316</v>
+      </c>
       <c r="G24" s="26"/>
       <c r="H24" s="5"/>
     </row>
@@ -1065,7 +1067,9 @@
       <c r="E25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="26"/>
+      <c r="F25" s="26" t="n">
+        <v>2.71</v>
+      </c>
       <c r="G25" s="26"/>
       <c r="H25" s="5"/>
     </row>
@@ -1077,7 +1081,9 @@
       <c r="E26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="26"/>
+      <c r="F26" s="26" t="n">
+        <v>1.532</v>
+      </c>
       <c r="G26" s="26"/>
       <c r="H26" s="5"/>
     </row>
@@ -1617,16 +1623,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1843,9 +1849,9 @@
       <c r="F16" s="26">
         <v>14.6</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="26" t="n">
         <f>SUM(F16:F100)</f>
-        <v>31.099999999999998</v>
+        <v>37.658</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1955,7 +1961,9 @@
       <c r="E24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="26"/>
+      <c r="F24" s="26" t="n">
+        <v>2.316</v>
+      </c>
       <c r="G24" s="26"/>
       <c r="H24" s="5"/>
     </row>
@@ -1967,7 +1975,9 @@
       <c r="E25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="26"/>
+      <c r="F25" s="26" t="n">
+        <v>2.71</v>
+      </c>
       <c r="G25" s="26"/>
       <c r="H25" s="5"/>
     </row>
@@ -1979,7 +1989,9 @@
       <c r="E26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="26"/>
+      <c r="F26" s="26" t="n">
+        <v>1.532</v>
+      </c>
       <c r="G26" s="26"/>
       <c r="H26" s="5"/>
     </row>
@@ -2519,16 +2531,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2743,9 +2755,9 @@
       <c r="F16" s="26">
         <v>28</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="26" t="n">
         <f>SUM(F16:F100)</f>
-        <v>44.500000000000007</v>
+        <v>51.05800000000001</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -2855,7 +2867,9 @@
       <c r="E24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="26"/>
+      <c r="F24" s="26" t="n">
+        <v>2.316</v>
+      </c>
       <c r="G24" s="26"/>
       <c r="H24" s="5"/>
     </row>
@@ -2867,7 +2881,9 @@
       <c r="E25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="26"/>
+      <c r="F25" s="26" t="n">
+        <v>2.71</v>
+      </c>
       <c r="G25" s="26"/>
       <c r="H25" s="5"/>
     </row>
@@ -2879,7 +2895,9 @@
       <c r="E26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="26"/>
+      <c r="F26" s="26" t="n">
+        <v>1.532</v>
+      </c>
       <c r="G26" s="26"/>
       <c r="H26" s="5"/>
     </row>
@@ -3419,16 +3437,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3643,9 +3661,9 @@
       <c r="F16" s="26">
         <v>28</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="26" t="n">
         <f>SUM(F16:F100)</f>
-        <v>44.500000000000007</v>
+        <v>51.05800000000001</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -3755,7 +3773,9 @@
       <c r="E24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="26"/>
+      <c r="F24" s="26" t="n">
+        <v>2.316</v>
+      </c>
       <c r="G24" s="26"/>
       <c r="H24" s="5"/>
     </row>
@@ -3767,7 +3787,9 @@
       <c r="E25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="26"/>
+      <c r="F25" s="26" t="n">
+        <v>2.71</v>
+      </c>
       <c r="G25" s="26"/>
       <c r="H25" s="5"/>
     </row>
@@ -3779,7 +3801,9 @@
       <c r="E26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="26"/>
+      <c r="F26" s="26" t="n">
+        <v>1.532</v>
+      </c>
       <c r="G26" s="26"/>
       <c r="H26" s="5"/>
     </row>
@@ -4319,16 +4343,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4545,9 +4569,9 @@
       <c r="F16" s="26">
         <v>59.9</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="26" t="n">
         <f>SUM(F16:F100)</f>
-        <v>76.400000000000006</v>
+        <v>82.958</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -4657,7 +4681,9 @@
       <c r="E24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="26"/>
+      <c r="F24" s="26" t="n">
+        <v>2.316</v>
+      </c>
       <c r="G24" s="26"/>
       <c r="H24" s="5"/>
     </row>
@@ -4669,7 +4695,9 @@
       <c r="E25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="26"/>
+      <c r="F25" s="26" t="n">
+        <v>2.71</v>
+      </c>
       <c r="G25" s="26"/>
       <c r="H25" s="5"/>
     </row>
@@ -4681,7 +4709,9 @@
       <c r="E26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="26"/>
+      <c r="F26" s="26" t="n">
+        <v>1.532</v>
+      </c>
       <c r="G26" s="26"/>
       <c r="H26" s="5"/>
     </row>
@@ -5221,16 +5251,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5447,9 +5477,9 @@
       <c r="F16" s="26">
         <v>59.9</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="26" t="n">
         <f>SUM(F16:F100)</f>
-        <v>76.400000000000006</v>
+        <v>82.958</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -5559,7 +5589,9 @@
       <c r="E24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="26"/>
+      <c r="F24" s="26" t="n">
+        <v>2.316</v>
+      </c>
       <c r="G24" s="26"/>
       <c r="H24" s="5"/>
     </row>
@@ -5571,7 +5603,9 @@
       <c r="E25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="26"/>
+      <c r="F25" s="26" t="n">
+        <v>2.71</v>
+      </c>
       <c r="G25" s="26"/>
       <c r="H25" s="5"/>
     </row>
@@ -5583,7 +5617,9 @@
       <c r="E26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="26"/>
+      <c r="F26" s="26" t="n">
+        <v>1.532</v>
+      </c>
       <c r="G26" s="26"/>
       <c r="H26" s="5"/>
     </row>
@@ -6123,16 +6159,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6349,9 +6385,9 @@
       <c r="F16" s="26">
         <v>80.599999999999994</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="26" t="n">
         <f>SUM(F16:F100)</f>
-        <v>97.1</v>
+        <v>103.65799999999999</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -6461,7 +6497,9 @@
       <c r="E24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="26"/>
+      <c r="F24" s="26" t="n">
+        <v>2.316</v>
+      </c>
       <c r="G24" s="26"/>
       <c r="H24" s="5"/>
     </row>
@@ -6473,7 +6511,9 @@
       <c r="E25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="26"/>
+      <c r="F25" s="26" t="n">
+        <v>2.71</v>
+      </c>
       <c r="G25" s="26"/>
       <c r="H25" s="5"/>
     </row>
@@ -6485,7 +6525,9 @@
       <c r="E26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="26"/>
+      <c r="F26" s="26" t="n">
+        <v>1.532</v>
+      </c>
       <c r="G26" s="26"/>
       <c r="H26" s="5"/>
     </row>
@@ -7025,16 +7067,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7251,9 +7293,9 @@
       <c r="F16" s="26">
         <v>80.599999999999994</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="26" t="n">
         <f>SUM(F16:F100)</f>
-        <v>97.1</v>
+        <v>103.65799999999999</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -7363,7 +7405,9 @@
       <c r="E24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="26"/>
+      <c r="F24" s="26" t="n">
+        <v>2.316</v>
+      </c>
       <c r="G24" s="26"/>
       <c r="H24" s="5"/>
     </row>
@@ -7375,7 +7419,9 @@
       <c r="E25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="26"/>
+      <c r="F25" s="26" t="n">
+        <v>2.71</v>
+      </c>
       <c r="G25" s="26"/>
       <c r="H25" s="5"/>
     </row>
@@ -7387,7 +7433,9 @@
       <c r="E26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="26"/>
+      <c r="F26" s="26" t="n">
+        <v>1.532</v>
+      </c>
       <c r="G26" s="26"/>
       <c r="H26" s="5"/>
     </row>

--- a/resources/wheels/175 - Лойко.xlsx
+++ b/resources/wheels/175 - Лойко.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="63">
   <si>
     <t>Карточка учета работы автомобильной шины</t>
   </si>
@@ -179,6 +179,42 @@
   </si>
   <si>
     <t>до 01.12.2019</t>
+  </si>
+  <si>
+    <t>январь 2021</t>
+  </si>
+  <si>
+    <t>февраль 2021</t>
+  </si>
+  <si>
+    <t>март 2021</t>
+  </si>
+  <si>
+    <t>апрель 2021</t>
+  </si>
+  <si>
+    <t>май 2021</t>
+  </si>
+  <si>
+    <t>июнь 2021</t>
+  </si>
+  <si>
+    <t>июль 2021</t>
+  </si>
+  <si>
+    <t>август 2021</t>
+  </si>
+  <si>
+    <t>сентябрь 2021</t>
+  </si>
+  <si>
+    <t>октябрь 2021</t>
+  </si>
+  <si>
+    <t>ноябрь 2021</t>
+  </si>
+  <si>
+    <t>декабрь 2021</t>
   </si>
 </sst>
 </file>
@@ -709,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -943,7 +979,7 @@
       </c>
       <c r="G16" s="26" t="n">
         <f>SUM(F16:F100)</f>
-        <v>37.658</v>
+        <v>42.56600000000001</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1053,8 +1089,8 @@
       <c r="E24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="26" t="n">
-        <v>2.316</v>
+      <c r="F24" s="26">
+        <v>2.3159999999999998</v>
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="5"/>
@@ -1067,7 +1103,7 @@
       <c r="E25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="26" t="n">
+      <c r="F25" s="26">
         <v>2.71</v>
       </c>
       <c r="G25" s="26"/>
@@ -1081,7 +1117,7 @@
       <c r="E26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="26" t="n">
+      <c r="F26" s="26">
         <v>1.532</v>
       </c>
       <c r="G26" s="26"/>
@@ -1095,7 +1131,9 @@
       <c r="E27" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="26"/>
+      <c r="F27" s="26">
+        <v>2.1459999999999999</v>
+      </c>
       <c r="G27" s="26"/>
       <c r="H27" s="5"/>
     </row>
@@ -1107,7 +1145,9 @@
       <c r="E28" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="26"/>
+      <c r="F28" s="26">
+        <v>1.554</v>
+      </c>
       <c r="G28" s="26"/>
       <c r="H28" s="5"/>
     </row>
@@ -1119,7 +1159,9 @@
       <c r="E29" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="26"/>
+      <c r="F29" s="26" t="n">
+        <v>1.026</v>
+      </c>
       <c r="G29" s="26"/>
       <c r="H29" s="5"/>
     </row>
@@ -1128,8 +1170,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="14"/>
+      <c r="E30" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="14" t="n">
+        <v>0.182</v>
+      </c>
       <c r="G30" s="14"/>
       <c r="H30" s="5"/>
     </row>
@@ -1138,7 +1184,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="23"/>
       <c r="D31" s="27"/>
-      <c r="E31" s="17"/>
+      <c r="E31" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="5"/>
@@ -1148,7 +1196,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+      <c r="E32" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="5"/>
@@ -1158,7 +1208,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
+      <c r="E33" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="5"/>
@@ -1168,7 +1220,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
+      <c r="E34" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="5"/>
@@ -1178,7 +1232,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
+      <c r="E35" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
       <c r="H35" s="5"/>
@@ -1188,7 +1244,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
+      <c r="E36" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
       <c r="H36" s="5"/>
@@ -1198,7 +1256,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
+      <c r="E37" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
       <c r="H37" s="5"/>
@@ -1208,7 +1268,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
+      <c r="E38" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
       <c r="H38" s="5"/>
@@ -1218,7 +1280,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
+      <c r="E39" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
       <c r="H39" s="5"/>
@@ -1228,7 +1292,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
+      <c r="E40" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
       <c r="H40" s="5"/>
@@ -1238,7 +1304,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
+      <c r="E41" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="5"/>
@@ -1618,7 +1686,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1851,7 +1919,7 @@
       </c>
       <c r="G16" s="26" t="n">
         <f>SUM(F16:F100)</f>
-        <v>37.658</v>
+        <v>42.56600000000001</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1961,8 +2029,8 @@
       <c r="E24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="26" t="n">
-        <v>2.316</v>
+      <c r="F24" s="26">
+        <v>2.3159999999999998</v>
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="5"/>
@@ -1975,7 +2043,7 @@
       <c r="E25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="26" t="n">
+      <c r="F25" s="26">
         <v>2.71</v>
       </c>
       <c r="G25" s="26"/>
@@ -1989,7 +2057,7 @@
       <c r="E26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="26" t="n">
+      <c r="F26" s="26">
         <v>1.532</v>
       </c>
       <c r="G26" s="26"/>
@@ -2003,7 +2071,9 @@
       <c r="E27" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="26"/>
+      <c r="F27" s="26">
+        <v>2.1459999999999999</v>
+      </c>
       <c r="G27" s="26"/>
       <c r="H27" s="5"/>
     </row>
@@ -2015,7 +2085,9 @@
       <c r="E28" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="26"/>
+      <c r="F28" s="26">
+        <v>1.554</v>
+      </c>
       <c r="G28" s="26"/>
       <c r="H28" s="5"/>
     </row>
@@ -2027,7 +2099,9 @@
       <c r="E29" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="26"/>
+      <c r="F29" s="26" t="n">
+        <v>1.026</v>
+      </c>
       <c r="G29" s="26"/>
       <c r="H29" s="5"/>
     </row>
@@ -2036,8 +2110,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="14"/>
+      <c r="E30" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="14" t="n">
+        <v>0.182</v>
+      </c>
       <c r="G30" s="14"/>
       <c r="H30" s="5"/>
     </row>
@@ -2046,7 +2124,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="23"/>
       <c r="D31" s="27"/>
-      <c r="E31" s="17"/>
+      <c r="E31" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="5"/>
@@ -2056,7 +2136,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+      <c r="E32" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="5"/>
@@ -2066,7 +2148,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
+      <c r="E33" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="5"/>
@@ -2076,7 +2160,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
+      <c r="E34" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="5"/>
@@ -2086,7 +2172,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
+      <c r="E35" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
       <c r="H35" s="5"/>
@@ -2096,7 +2184,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
+      <c r="E36" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
       <c r="H36" s="5"/>
@@ -2106,7 +2196,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
+      <c r="E37" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
       <c r="H37" s="5"/>
@@ -2116,7 +2208,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
+      <c r="E38" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
       <c r="H38" s="5"/>
@@ -2126,7 +2220,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
+      <c r="E39" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
       <c r="H39" s="5"/>
@@ -2136,7 +2232,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
+      <c r="E40" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
       <c r="H40" s="5"/>
@@ -2146,7 +2244,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
+      <c r="E41" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="5"/>
@@ -2526,7 +2626,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2757,7 +2857,7 @@
       </c>
       <c r="G16" s="26" t="n">
         <f>SUM(F16:F100)</f>
-        <v>51.05800000000001</v>
+        <v>55.966000000000015</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -2867,8 +2967,8 @@
       <c r="E24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="26" t="n">
-        <v>2.316</v>
+      <c r="F24" s="26">
+        <v>2.3159999999999998</v>
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="5"/>
@@ -2881,7 +2981,7 @@
       <c r="E25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="26" t="n">
+      <c r="F25" s="26">
         <v>2.71</v>
       </c>
       <c r="G25" s="26"/>
@@ -2895,7 +2995,7 @@
       <c r="E26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="26" t="n">
+      <c r="F26" s="26">
         <v>1.532</v>
       </c>
       <c r="G26" s="26"/>
@@ -2909,7 +3009,9 @@
       <c r="E27" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="26"/>
+      <c r="F27" s="26">
+        <v>2.1459999999999999</v>
+      </c>
       <c r="G27" s="26"/>
       <c r="H27" s="5"/>
     </row>
@@ -2921,7 +3023,9 @@
       <c r="E28" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="26"/>
+      <c r="F28" s="26">
+        <v>1.554</v>
+      </c>
       <c r="G28" s="26"/>
       <c r="H28" s="5"/>
     </row>
@@ -2933,7 +3037,9 @@
       <c r="E29" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="26"/>
+      <c r="F29" s="26" t="n">
+        <v>1.026</v>
+      </c>
       <c r="G29" s="26"/>
       <c r="H29" s="5"/>
     </row>
@@ -2942,8 +3048,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="14"/>
+      <c r="E30" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="14" t="n">
+        <v>0.182</v>
+      </c>
       <c r="G30" s="14"/>
       <c r="H30" s="5"/>
     </row>
@@ -2952,7 +3062,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="23"/>
       <c r="D31" s="27"/>
-      <c r="E31" s="17"/>
+      <c r="E31" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="5"/>
@@ -2962,7 +3074,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+      <c r="E32" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="5"/>
@@ -2972,7 +3086,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
+      <c r="E33" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="5"/>
@@ -2982,7 +3098,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
+      <c r="E34" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="5"/>
@@ -2992,7 +3110,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
+      <c r="E35" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
       <c r="H35" s="5"/>
@@ -3002,7 +3122,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
+      <c r="E36" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
       <c r="H36" s="5"/>
@@ -3012,7 +3134,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
+      <c r="E37" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
       <c r="H37" s="5"/>
@@ -3022,7 +3146,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
+      <c r="E38" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
       <c r="H38" s="5"/>
@@ -3032,7 +3158,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
+      <c r="E39" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
       <c r="H39" s="5"/>
@@ -3042,7 +3170,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
+      <c r="E40" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
       <c r="H40" s="5"/>
@@ -3052,7 +3182,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
+      <c r="E41" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="5"/>
@@ -3432,7 +3564,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3663,7 +3795,7 @@
       </c>
       <c r="G16" s="26" t="n">
         <f>SUM(F16:F100)</f>
-        <v>51.05800000000001</v>
+        <v>55.966000000000015</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -3773,8 +3905,8 @@
       <c r="E24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="26" t="n">
-        <v>2.316</v>
+      <c r="F24" s="26">
+        <v>2.3159999999999998</v>
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="5"/>
@@ -3787,7 +3919,7 @@
       <c r="E25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="26" t="n">
+      <c r="F25" s="26">
         <v>2.71</v>
       </c>
       <c r="G25" s="26"/>
@@ -3801,7 +3933,7 @@
       <c r="E26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="26" t="n">
+      <c r="F26" s="26">
         <v>1.532</v>
       </c>
       <c r="G26" s="26"/>
@@ -3815,7 +3947,9 @@
       <c r="E27" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="26"/>
+      <c r="F27" s="26">
+        <v>2.1459999999999999</v>
+      </c>
       <c r="G27" s="26"/>
       <c r="H27" s="5"/>
     </row>
@@ -3827,7 +3961,9 @@
       <c r="E28" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="26"/>
+      <c r="F28" s="26">
+        <v>1.554</v>
+      </c>
       <c r="G28" s="26"/>
       <c r="H28" s="5"/>
     </row>
@@ -3839,7 +3975,9 @@
       <c r="E29" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="26"/>
+      <c r="F29" s="26" t="n">
+        <v>1.026</v>
+      </c>
       <c r="G29" s="26"/>
       <c r="H29" s="5"/>
     </row>
@@ -3848,8 +3986,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="14"/>
+      <c r="E30" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="14" t="n">
+        <v>0.182</v>
+      </c>
       <c r="G30" s="14"/>
       <c r="H30" s="5"/>
     </row>
@@ -3858,7 +4000,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="23"/>
       <c r="D31" s="27"/>
-      <c r="E31" s="17"/>
+      <c r="E31" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="5"/>
@@ -3868,7 +4012,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+      <c r="E32" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="5"/>
@@ -3878,7 +4024,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
+      <c r="E33" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="5"/>
@@ -3888,7 +4036,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
+      <c r="E34" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="5"/>
@@ -3898,7 +4048,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
+      <c r="E35" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
       <c r="H35" s="5"/>
@@ -3908,7 +4060,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
+      <c r="E36" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
       <c r="H36" s="5"/>
@@ -3918,7 +4072,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
+      <c r="E37" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
       <c r="H37" s="5"/>
@@ -3928,7 +4084,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
+      <c r="E38" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
       <c r="H38" s="5"/>
@@ -3938,7 +4096,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
+      <c r="E39" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
       <c r="H39" s="5"/>
@@ -3948,7 +4108,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
+      <c r="E40" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
       <c r="H40" s="5"/>
@@ -3958,7 +4120,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
+      <c r="E41" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="5"/>
@@ -4338,7 +4502,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4571,7 +4735,7 @@
       </c>
       <c r="G16" s="26" t="n">
         <f>SUM(F16:F100)</f>
-        <v>82.958</v>
+        <v>87.866</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -4681,8 +4845,8 @@
       <c r="E24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="26" t="n">
-        <v>2.316</v>
+      <c r="F24" s="26">
+        <v>2.3159999999999998</v>
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="5"/>
@@ -4695,7 +4859,7 @@
       <c r="E25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="26" t="n">
+      <c r="F25" s="26">
         <v>2.71</v>
       </c>
       <c r="G25" s="26"/>
@@ -4709,7 +4873,7 @@
       <c r="E26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="26" t="n">
+      <c r="F26" s="26">
         <v>1.532</v>
       </c>
       <c r="G26" s="26"/>
@@ -4723,7 +4887,9 @@
       <c r="E27" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="26"/>
+      <c r="F27" s="26">
+        <v>2.1459999999999999</v>
+      </c>
       <c r="G27" s="26"/>
       <c r="H27" s="5"/>
     </row>
@@ -4735,7 +4901,9 @@
       <c r="E28" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="26"/>
+      <c r="F28" s="26">
+        <v>1.554</v>
+      </c>
       <c r="G28" s="26"/>
       <c r="H28" s="5"/>
     </row>
@@ -4747,7 +4915,9 @@
       <c r="E29" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="26"/>
+      <c r="F29" s="26" t="n">
+        <v>1.026</v>
+      </c>
       <c r="G29" s="26"/>
       <c r="H29" s="5"/>
     </row>
@@ -4756,8 +4926,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="14"/>
+      <c r="E30" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="14" t="n">
+        <v>0.182</v>
+      </c>
       <c r="G30" s="14"/>
       <c r="H30" s="5"/>
     </row>
@@ -4766,7 +4940,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="23"/>
       <c r="D31" s="27"/>
-      <c r="E31" s="17"/>
+      <c r="E31" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="5"/>
@@ -4776,7 +4952,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+      <c r="E32" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="5"/>
@@ -4786,7 +4964,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
+      <c r="E33" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="5"/>
@@ -4796,7 +4976,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
+      <c r="E34" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="5"/>
@@ -4806,7 +4988,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
+      <c r="E35" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
       <c r="H35" s="5"/>
@@ -4816,7 +5000,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
+      <c r="E36" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
       <c r="H36" s="5"/>
@@ -4826,7 +5012,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
+      <c r="E37" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
       <c r="H37" s="5"/>
@@ -4836,7 +5024,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
+      <c r="E38" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
       <c r="H38" s="5"/>
@@ -4846,7 +5036,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
+      <c r="E39" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
       <c r="H39" s="5"/>
@@ -4856,7 +5048,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
+      <c r="E40" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
       <c r="H40" s="5"/>
@@ -4866,7 +5060,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
+      <c r="E41" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="5"/>
@@ -5246,7 +5442,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5479,7 +5675,7 @@
       </c>
       <c r="G16" s="26" t="n">
         <f>SUM(F16:F100)</f>
-        <v>82.958</v>
+        <v>87.866</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -5589,8 +5785,8 @@
       <c r="E24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="26" t="n">
-        <v>2.316</v>
+      <c r="F24" s="26">
+        <v>2.3159999999999998</v>
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="5"/>
@@ -5603,7 +5799,7 @@
       <c r="E25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="26" t="n">
+      <c r="F25" s="26">
         <v>2.71</v>
       </c>
       <c r="G25" s="26"/>
@@ -5617,7 +5813,7 @@
       <c r="E26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="26" t="n">
+      <c r="F26" s="26">
         <v>1.532</v>
       </c>
       <c r="G26" s="26"/>
@@ -5631,7 +5827,9 @@
       <c r="E27" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="26"/>
+      <c r="F27" s="26">
+        <v>2.1459999999999999</v>
+      </c>
       <c r="G27" s="26"/>
       <c r="H27" s="5"/>
     </row>
@@ -5643,7 +5841,9 @@
       <c r="E28" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="26"/>
+      <c r="F28" s="26">
+        <v>1.554</v>
+      </c>
       <c r="G28" s="26"/>
       <c r="H28" s="5"/>
     </row>
@@ -5655,7 +5855,9 @@
       <c r="E29" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="26"/>
+      <c r="F29" s="26" t="n">
+        <v>1.026</v>
+      </c>
       <c r="G29" s="26"/>
       <c r="H29" s="5"/>
     </row>
@@ -5664,8 +5866,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="14"/>
+      <c r="E30" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="14" t="n">
+        <v>0.182</v>
+      </c>
       <c r="G30" s="14"/>
       <c r="H30" s="5"/>
     </row>
@@ -5674,7 +5880,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="23"/>
       <c r="D31" s="27"/>
-      <c r="E31" s="17"/>
+      <c r="E31" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="5"/>
@@ -5684,7 +5892,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+      <c r="E32" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="5"/>
@@ -5694,7 +5904,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
+      <c r="E33" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="5"/>
@@ -5704,7 +5916,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
+      <c r="E34" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="5"/>
@@ -5714,7 +5928,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
+      <c r="E35" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
       <c r="H35" s="5"/>
@@ -5724,7 +5940,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
+      <c r="E36" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
       <c r="H36" s="5"/>
@@ -5734,7 +5952,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
+      <c r="E37" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
       <c r="H37" s="5"/>
@@ -5744,7 +5964,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
+      <c r="E38" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
       <c r="H38" s="5"/>
@@ -5754,7 +5976,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
+      <c r="E39" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
       <c r="H39" s="5"/>
@@ -5764,7 +5988,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
+      <c r="E40" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
       <c r="H40" s="5"/>
@@ -5774,7 +6000,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
+      <c r="E41" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="5"/>
@@ -6154,7 +6382,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6387,7 +6615,7 @@
       </c>
       <c r="G16" s="26" t="n">
         <f>SUM(F16:F100)</f>
-        <v>103.65799999999999</v>
+        <v>108.56599999999999</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -6497,8 +6725,8 @@
       <c r="E24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="26" t="n">
-        <v>2.316</v>
+      <c r="F24" s="26">
+        <v>2.3159999999999998</v>
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="5"/>
@@ -6511,7 +6739,7 @@
       <c r="E25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="26" t="n">
+      <c r="F25" s="26">
         <v>2.71</v>
       </c>
       <c r="G25" s="26"/>
@@ -6525,7 +6753,7 @@
       <c r="E26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="26" t="n">
+      <c r="F26" s="26">
         <v>1.532</v>
       </c>
       <c r="G26" s="26"/>
@@ -6539,7 +6767,9 @@
       <c r="E27" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="26"/>
+      <c r="F27" s="26">
+        <v>2.1459999999999999</v>
+      </c>
       <c r="G27" s="26"/>
       <c r="H27" s="5"/>
     </row>
@@ -6551,7 +6781,9 @@
       <c r="E28" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="26"/>
+      <c r="F28" s="26">
+        <v>1.554</v>
+      </c>
       <c r="G28" s="26"/>
       <c r="H28" s="5"/>
     </row>
@@ -6563,7 +6795,9 @@
       <c r="E29" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="26"/>
+      <c r="F29" s="26" t="n">
+        <v>1.026</v>
+      </c>
       <c r="G29" s="26"/>
       <c r="H29" s="5"/>
     </row>
@@ -6572,8 +6806,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="14"/>
+      <c r="E30" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="14" t="n">
+        <v>0.182</v>
+      </c>
       <c r="G30" s="14"/>
       <c r="H30" s="5"/>
     </row>
@@ -6582,7 +6820,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="23"/>
       <c r="D31" s="27"/>
-      <c r="E31" s="17"/>
+      <c r="E31" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="5"/>
@@ -6592,7 +6832,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+      <c r="E32" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="5"/>
@@ -6602,7 +6844,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
+      <c r="E33" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="5"/>
@@ -6612,7 +6856,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
+      <c r="E34" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="5"/>
@@ -6622,7 +6868,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
+      <c r="E35" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
       <c r="H35" s="5"/>
@@ -6632,7 +6880,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
+      <c r="E36" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
       <c r="H36" s="5"/>
@@ -6642,7 +6892,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
+      <c r="E37" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
       <c r="H37" s="5"/>
@@ -6652,7 +6904,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
+      <c r="E38" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
       <c r="H38" s="5"/>
@@ -6662,7 +6916,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
+      <c r="E39" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
       <c r="H39" s="5"/>
@@ -6672,7 +6928,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
+      <c r="E40" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
       <c r="H40" s="5"/>
@@ -6682,7 +6940,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
+      <c r="E41" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="5"/>
@@ -7062,7 +7322,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7295,7 +7555,7 @@
       </c>
       <c r="G16" s="26" t="n">
         <f>SUM(F16:F100)</f>
-        <v>103.65799999999999</v>
+        <v>108.56599999999999</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -7405,8 +7665,8 @@
       <c r="E24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="26" t="n">
-        <v>2.316</v>
+      <c r="F24" s="26">
+        <v>2.3159999999999998</v>
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="5"/>
@@ -7419,7 +7679,7 @@
       <c r="E25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="26" t="n">
+      <c r="F25" s="26">
         <v>2.71</v>
       </c>
       <c r="G25" s="26"/>
@@ -7433,7 +7693,7 @@
       <c r="E26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="26" t="n">
+      <c r="F26" s="26">
         <v>1.532</v>
       </c>
       <c r="G26" s="26"/>
@@ -7447,7 +7707,9 @@
       <c r="E27" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="26"/>
+      <c r="F27" s="26">
+        <v>2.1459999999999999</v>
+      </c>
       <c r="G27" s="26"/>
       <c r="H27" s="5"/>
     </row>
@@ -7459,7 +7721,9 @@
       <c r="E28" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="26"/>
+      <c r="F28" s="26">
+        <v>1.554</v>
+      </c>
       <c r="G28" s="26"/>
       <c r="H28" s="5"/>
     </row>
@@ -7471,7 +7735,9 @@
       <c r="E29" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="26"/>
+      <c r="F29" s="26" t="n">
+        <v>1.026</v>
+      </c>
       <c r="G29" s="26"/>
       <c r="H29" s="5"/>
     </row>
@@ -7480,8 +7746,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="14"/>
+      <c r="E30" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="14" t="n">
+        <v>0.182</v>
+      </c>
       <c r="G30" s="14"/>
       <c r="H30" s="5"/>
     </row>
@@ -7490,7 +7760,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="23"/>
       <c r="D31" s="27"/>
-      <c r="E31" s="17"/>
+      <c r="E31" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="5"/>
@@ -7500,7 +7772,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+      <c r="E32" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="5"/>
@@ -7510,7 +7784,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
+      <c r="E33" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="5"/>
@@ -7520,7 +7796,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
+      <c r="E34" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="5"/>
@@ -7530,7 +7808,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
+      <c r="E35" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
       <c r="H35" s="5"/>
@@ -7540,7 +7820,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
+      <c r="E36" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
       <c r="H36" s="5"/>
@@ -7550,7 +7832,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
+      <c r="E37" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
       <c r="H37" s="5"/>
@@ -7560,7 +7844,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
+      <c r="E38" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
       <c r="H38" s="5"/>
@@ -7570,7 +7856,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
+      <c r="E39" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
       <c r="H39" s="5"/>
@@ -7580,7 +7868,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
+      <c r="E40" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
       <c r="H40" s="5"/>
@@ -7590,7 +7880,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
+      <c r="E41" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="5"/>
